--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -484,7 +484,7 @@
         <v>69</v>
       </c>
       <c r="J5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5">
         <v>77</v>
@@ -493,7 +493,7 @@
         <v>69</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13">

--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>69</v>

--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>69</v>
@@ -490,7 +490,7 @@
         <v>77</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5">
         <v>79</v>

--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -510,7 +510,7 @@
         <v>84</v>
       </c>
       <c r="K6">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -504,13 +504,16 @@
         <v>74</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="J6">
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -507,13 +507,13 @@
         <v>71</v>
       </c>
       <c r="H6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>71</v>
@@ -510,7 +510,7 @@
         <v>88</v>
       </c>
       <c r="J6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6">
         <v>95</v>
@@ -521,16 +521,16 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7">
         <v>66</v>

--- a/各月份各月蓝球超均值情况_超65.xlsx
+++ b/各月份各月蓝球超均值情况_超65.xlsx
@@ -527,13 +527,13 @@
         <v>73</v>
       </c>
       <c r="K7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13">
